--- a/data/questionario.xlsx
+++ b/data/questionario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reus3111/Desktop/promesse_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reus3111/Desktop/productivity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5389B546-1243-B34A-8A50-16D4C8A670DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9142F86-35B5-954C-8479-634B85CC2445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promesse" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>Stato</t>
+  </si>
+  <si>
+    <t>Tengo sempre almeno un pasto di riserva in casa</t>
+  </si>
+  <si>
+    <t>Mi proteggo dai momenti difficili. Mi preparo con amore per i giorni più complicati.</t>
+  </si>
+  <si>
+    <t>Quando lo mangio lo ricompro</t>
   </si>
 </sst>
 </file>
@@ -447,9 +456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -535,6 +546,20 @@
       </c>
       <c r="D6" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
